--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moenk\Documents\UiPath\ZackToroBot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/178b79c87036536f/UiPath/ZackToroBot/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B352B3-4CFB-4867-AFC9-7B2C5229435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{15B352B3-4CFB-4867-AFC9-7B2C5229435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA2172CC-DD22-4F21-9CED-273F35D8B8F7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>ExScreenshotsFolderPath</t>
-  </si>
-  <si>
-    <t>Exceptions_Screenshots</t>
   </si>
   <si>
     <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>TickerQueue</t>
+  </si>
+  <si>
+    <t>c:\temp\</t>
   </si>
 </sst>
 </file>
@@ -546,25 +546,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="30">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1571,7 +1571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1623,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1632,66 +1634,66 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2701,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
